--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.2572159090017</v>
+        <v>5.67446</v>
       </c>
       <c r="H2">
-        <v>14.2572159090017</v>
+        <v>17.02338</v>
       </c>
       <c r="I2">
-        <v>0.861649080116073</v>
+        <v>0.245923038656222</v>
       </c>
       <c r="J2">
-        <v>0.861649080116073</v>
+        <v>0.245923038656222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.39635754973626</v>
+        <v>14.39487933333333</v>
       </c>
       <c r="N2">
-        <v>5.39635754973626</v>
+        <v>43.184638</v>
       </c>
       <c r="O2">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959761</v>
       </c>
       <c r="P2">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959762</v>
       </c>
       <c r="Q2">
-        <v>76.93703470876123</v>
+        <v>81.68316698182667</v>
       </c>
       <c r="R2">
-        <v>76.93703470876123</v>
+        <v>735.14850283644</v>
       </c>
       <c r="S2">
-        <v>0.3928636949525462</v>
+        <v>0.1695190983656985</v>
       </c>
       <c r="T2">
-        <v>0.3928636949525462</v>
+        <v>0.1695190983656985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.2572159090017</v>
+        <v>5.67446</v>
       </c>
       <c r="H3">
-        <v>14.2572159090017</v>
+        <v>17.02338</v>
       </c>
       <c r="I3">
-        <v>0.861649080116073</v>
+        <v>0.245923038656222</v>
       </c>
       <c r="J3">
-        <v>0.861649080116073</v>
+        <v>0.245923038656222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.4908338205051</v>
+        <v>5.526052333333333</v>
       </c>
       <c r="N3">
-        <v>5.4908338205051</v>
+        <v>16.578157</v>
       </c>
       <c r="O3">
-        <v>0.4639263615527912</v>
+        <v>0.264622264871545</v>
       </c>
       <c r="P3">
-        <v>0.4639263615527912</v>
+        <v>0.2646222648715451</v>
       </c>
       <c r="Q3">
-        <v>78.28400329938989</v>
+        <v>31.35736292340667</v>
       </c>
       <c r="R3">
-        <v>78.28400329938989</v>
+        <v>282.21626631066</v>
       </c>
       <c r="S3">
-        <v>0.3997417226735592</v>
+        <v>0.06507671147330199</v>
       </c>
       <c r="T3">
-        <v>0.3997417226735592</v>
+        <v>0.06507671147330202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.2572159090017</v>
+        <v>5.67446</v>
       </c>
       <c r="H4">
-        <v>14.2572159090017</v>
+        <v>17.02338</v>
       </c>
       <c r="I4">
-        <v>0.861649080116073</v>
+        <v>0.245923038656222</v>
       </c>
       <c r="J4">
-        <v>0.861649080116073</v>
+        <v>0.245923038656222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.948380555714578</v>
+        <v>0.9618626666666668</v>
       </c>
       <c r="N4">
-        <v>0.948380555714578</v>
+        <v>2.885588</v>
       </c>
       <c r="O4">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="P4">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="Q4">
-        <v>13.52126634672175</v>
+        <v>5.458051227493334</v>
       </c>
       <c r="R4">
-        <v>13.52126634672175</v>
+        <v>49.12246104744001</v>
       </c>
       <c r="S4">
-        <v>0.06904366248996748</v>
+        <v>0.01132722881722151</v>
       </c>
       <c r="T4">
-        <v>0.06904366248996748</v>
+        <v>0.01132722881722152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.28921376638437</v>
+        <v>14.93150033333333</v>
       </c>
       <c r="H5">
-        <v>2.28921376638437</v>
+        <v>44.794501</v>
       </c>
       <c r="I5">
-        <v>0.138350919883927</v>
+        <v>0.647110021688359</v>
       </c>
       <c r="J5">
-        <v>0.138350919883927</v>
+        <v>0.647110021688359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.39635754973626</v>
+        <v>14.39487933333333</v>
       </c>
       <c r="N5">
-        <v>5.39635754973626</v>
+        <v>43.184638</v>
       </c>
       <c r="O5">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959761</v>
       </c>
       <c r="P5">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959762</v>
       </c>
       <c r="Q5">
-        <v>12.35341599118847</v>
+        <v>214.9371455639598</v>
       </c>
       <c r="R5">
-        <v>12.35341599118847</v>
+        <v>1934.434310075638</v>
       </c>
       <c r="S5">
-        <v>0.06308026647966865</v>
+        <v>0.4460643785935214</v>
       </c>
       <c r="T5">
-        <v>0.06308026647966865</v>
+        <v>0.4460643785935214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.28921376638437</v>
+        <v>14.93150033333333</v>
       </c>
       <c r="H6">
-        <v>2.28921376638437</v>
+        <v>44.794501</v>
       </c>
       <c r="I6">
-        <v>0.138350919883927</v>
+        <v>0.647110021688359</v>
       </c>
       <c r="J6">
-        <v>0.138350919883927</v>
+        <v>0.647110021688359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.4908338205051</v>
+        <v>5.526052333333333</v>
       </c>
       <c r="N6">
-        <v>5.4908338205051</v>
+        <v>16.578157</v>
       </c>
       <c r="O6">
-        <v>0.4639263615527912</v>
+        <v>0.264622264871545</v>
       </c>
       <c r="P6">
-        <v>0.4639263615527912</v>
+        <v>0.2646222648715451</v>
       </c>
       <c r="Q6">
-        <v>12.56969237082916</v>
+        <v>82.5122522571841</v>
       </c>
       <c r="R6">
-        <v>12.56969237082916</v>
+        <v>742.610270314657</v>
       </c>
       <c r="S6">
-        <v>0.06418463887923195</v>
+        <v>0.1712397195602482</v>
       </c>
       <c r="T6">
-        <v>0.06418463887923195</v>
+        <v>0.1712397195602482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.93150033333333</v>
+      </c>
+      <c r="H7">
+        <v>44.794501</v>
+      </c>
+      <c r="I7">
+        <v>0.647110021688359</v>
+      </c>
+      <c r="J7">
+        <v>0.647110021688359</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9618626666666668</v>
+      </c>
+      <c r="N7">
+        <v>2.885588</v>
+      </c>
+      <c r="O7">
+        <v>0.04606005553247879</v>
+      </c>
+      <c r="P7">
+        <v>0.04606005553247879</v>
+      </c>
+      <c r="Q7">
+        <v>14.36205272795422</v>
+      </c>
+      <c r="R7">
+        <v>129.258474551588</v>
+      </c>
+      <c r="S7">
+        <v>0.02980592353458936</v>
+      </c>
+      <c r="T7">
+        <v>0.02980592353458937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.468169</v>
+      </c>
+      <c r="H8">
+        <v>7.404507</v>
+      </c>
+      <c r="I8">
+        <v>0.106966939655419</v>
+      </c>
+      <c r="J8">
+        <v>0.106966939655419</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.39487933333333</v>
+      </c>
+      <c r="N8">
+        <v>43.184638</v>
+      </c>
+      <c r="O8">
+        <v>0.6893176795959761</v>
+      </c>
+      <c r="P8">
+        <v>0.6893176795959762</v>
+      </c>
+      <c r="Q8">
+        <v>35.528994929274</v>
+      </c>
+      <c r="R8">
+        <v>319.760954363466</v>
+      </c>
+      <c r="S8">
+        <v>0.07373420263675623</v>
+      </c>
+      <c r="T8">
+        <v>0.07373420263675623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.28921376638437</v>
-      </c>
-      <c r="H7">
-        <v>2.28921376638437</v>
-      </c>
-      <c r="I7">
-        <v>0.138350919883927</v>
-      </c>
-      <c r="J7">
-        <v>0.138350919883927</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.948380555714578</v>
-      </c>
-      <c r="N7">
-        <v>0.948380555714578</v>
-      </c>
-      <c r="O7">
-        <v>0.08012967701499384</v>
-      </c>
-      <c r="P7">
-        <v>0.08012967701499384</v>
-      </c>
-      <c r="Q7">
-        <v>2.171045823913071</v>
-      </c>
-      <c r="R7">
-        <v>2.171045823913071</v>
-      </c>
-      <c r="S7">
-        <v>0.01108601452502636</v>
-      </c>
-      <c r="T7">
-        <v>0.01108601452502636</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.468169</v>
+      </c>
+      <c r="H9">
+        <v>7.404507</v>
+      </c>
+      <c r="I9">
+        <v>0.106966939655419</v>
+      </c>
+      <c r="J9">
+        <v>0.106966939655419</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.526052333333333</v>
+      </c>
+      <c r="N9">
+        <v>16.578157</v>
+      </c>
+      <c r="O9">
+        <v>0.264622264871545</v>
+      </c>
+      <c r="P9">
+        <v>0.2646222648715451</v>
+      </c>
+      <c r="Q9">
+        <v>13.639231061511</v>
+      </c>
+      <c r="R9">
+        <v>122.753079553599</v>
+      </c>
+      <c r="S9">
+        <v>0.02830583383799486</v>
+      </c>
+      <c r="T9">
+        <v>0.02830583383799487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.468169</v>
+      </c>
+      <c r="H10">
+        <v>7.404507</v>
+      </c>
+      <c r="I10">
+        <v>0.106966939655419</v>
+      </c>
+      <c r="J10">
+        <v>0.106966939655419</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9618626666666668</v>
+      </c>
+      <c r="N10">
+        <v>2.885588</v>
+      </c>
+      <c r="O10">
+        <v>0.04606005553247879</v>
+      </c>
+      <c r="P10">
+        <v>0.04606005553247879</v>
+      </c>
+      <c r="Q10">
+        <v>2.374039616124</v>
+      </c>
+      <c r="R10">
+        <v>21.366356545116</v>
+      </c>
+      <c r="S10">
+        <v>0.004926903180667907</v>
+      </c>
+      <c r="T10">
+        <v>0.004926903180667907</v>
       </c>
     </row>
   </sheetData>
